--- a/outputs/tables/distest_rawmetal.xlsx
+++ b/outputs/tables/distest_rawmetal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,273 +387,225 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lead</t>
+          <t>Aluminium</t>
         </is>
       </c>
       <c r="B2">
-        <v>0.6200103734681633</v>
+        <v>0.7635379022707605</v>
       </c>
       <c r="C2">
-        <v>8.259953229820794E-37</v>
+        <v>3.928927709352309E-20</v>
       </c>
       <c r="D2">
-        <v>711</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cadmium</t>
+          <t>Arsenic</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.9061225616383146</v>
+        <v>0.7927537366360499</v>
       </c>
       <c r="C3">
-        <v>1.476678911546875E-20</v>
+        <v>2.350836512355003E-22</v>
       </c>
       <c r="D3">
-        <v>715</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Iron</t>
+          <t>Barium</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.5301599553586193</v>
+        <v>0.639321859703994</v>
       </c>
       <c r="C4">
-        <v>3.422924835867382E-38</v>
+        <v>2.858337384410804E-22</v>
       </c>
       <c r="D4">
-        <v>645</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nickel</t>
+          <t>Boron</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.8637359953224562</v>
+        <v>0.3123850619569816</v>
       </c>
       <c r="C5">
-        <v>2.02277865622543E-24</v>
+        <v>3.293691298387689E-36</v>
       </c>
       <c r="D5">
-        <v>715</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Copper</t>
+          <t>Cadmium</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.751181059032517</v>
+        <v>0.9061225616383146</v>
       </c>
       <c r="C6">
-        <v>5.04558908332486E-32</v>
+        <v>1.476678911546875E-20</v>
       </c>
       <c r="D6">
-        <v>747</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Arsenic</t>
+          <t>Chromium</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.7927537366360499</v>
+        <v>0.01945959452895241</v>
       </c>
       <c r="C7">
-        <v>2.350836512355003E-22</v>
+        <v>5.400345608014824E-49</v>
       </c>
       <c r="D7">
-        <v>405</v>
+        <v>647</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Manganese</t>
+          <t>Copper</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.8666219757515832</v>
+        <v>0.751181059032517</v>
       </c>
       <c r="C8">
-        <v>7.33063005412298E-22</v>
+        <v>5.04558908332486E-32</v>
       </c>
       <c r="D8">
-        <v>582</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Zinc</t>
+          <t>Iron</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.8952758656329505</v>
+        <v>0.5190977465767388</v>
       </c>
       <c r="C9">
-        <v>8.040811910546307E-22</v>
+        <v>2.299998850844635E-39</v>
       </c>
       <c r="D9">
-        <v>726</v>
+        <v>681</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chromium</t>
+          <t>Lead</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.01945959452895241</v>
+        <v>0.6200103734681633</v>
       </c>
       <c r="C10">
-        <v>5.400345608014824E-49</v>
+        <v>8.259953229820794E-37</v>
       </c>
       <c r="D10">
-        <v>647</v>
+        <v>711</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aluminium</t>
+          <t>Lithium</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.7635379022707605</v>
+        <v>0.2602825193210137</v>
       </c>
       <c r="C11">
-        <v>3.928927709352309E-20</v>
+        <v>6.365985120287249E-30</v>
       </c>
       <c r="D11">
-        <v>290</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Barium</t>
+          <t>Magnesium</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.639321859703994</v>
+        <v>0.9336132765666371</v>
       </c>
       <c r="C12">
-        <v>2.858337384410804E-22</v>
+        <v>7.916003584075441E-14</v>
       </c>
       <c r="D12">
-        <v>241</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Boron</t>
+          <t>Manganese</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.3123850619569816</v>
+        <v>0.8642945509766615</v>
       </c>
       <c r="C13">
-        <v>3.293691298387689E-36</v>
+        <v>3.043180824681125E-22</v>
       </c>
       <c r="D13">
-        <v>405</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sodium</t>
+          <t>Nickel</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.8650687305135405</v>
+        <v>0.8637359953224562</v>
       </c>
       <c r="C14">
-        <v>2.992172865242417E-18</v>
+        <v>2.02277865622543E-24</v>
       </c>
       <c r="D14">
-        <v>405</v>
+        <v>715</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Potassium</t>
+          <t>Zinc</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.9306652866339596</v>
+        <v>0.8952758656329505</v>
       </c>
       <c r="C15">
-        <v>9.098638466881269E-13</v>
+        <v>8.040811910546307E-22</v>
       </c>
       <c r="D15">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Lithium</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>0.2602825193210137</v>
-      </c>
-      <c r="C16">
-        <v>6.365985120287249E-30</v>
-      </c>
-      <c r="D16">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Magnesium</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>0.9325965639260211</v>
-      </c>
-      <c r="C17">
-        <v>1.27286288656009E-13</v>
-      </c>
-      <c r="D17">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Calcium</t>
-        </is>
-      </c>
-      <c r="B18">
-        <v>0.836973667639745</v>
-      </c>
-      <c r="C18">
-        <v>3.344534235902968E-24</v>
-      </c>
-      <c r="D18">
-        <v>595</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
